--- a/model/results/mix5_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,10 +781,10 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>606923076.923077</v>
+        <v>606923076.9230773</v>
       </c>
       <c r="C3" t="n">
-        <v>606923076.923077</v>
+        <v>606923076.9230773</v>
       </c>
       <c r="D3" t="n">
         <v>606923076.9230773</v>
@@ -793,7 +793,7 @@
         <v>241500000</v>
       </c>
       <c r="F3" t="n">
-        <v>185769230.7692308</v>
+        <v>241500000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>312688245.0935519</v>
       </c>
       <c r="D6" t="n">
-        <v>414597014.3149313</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="E6" t="n">
-        <v>161000000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>268333333.3333333</v>
+        <v>200048507.4626865</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>120000000</v>
       </c>
       <c r="Q6" t="n">
-        <v>45000000</v>
+        <v>45000000.00000001</v>
       </c>
       <c r="R6" t="n">
         <v>15000000</v>
@@ -1234,7 +1234,7 @@
         <v>40500000</v>
       </c>
       <c r="V6" t="n">
-        <v>30000000</v>
+        <v>30000000.00000001</v>
       </c>
       <c r="W6" t="n">
         <v>10500000</v>
@@ -1243,7 +1243,7 @@
         <v>66000000</v>
       </c>
       <c r="Y6" t="n">
-        <v>55500000</v>
+        <v>55500000.00000001</v>
       </c>
       <c r="Z6" t="n">
         <v>30000000</v>
@@ -1261,43 +1261,43 @@
         <v>4500000</v>
       </c>
       <c r="AE6" t="n">
-        <v>40500000</v>
+        <v>40500000.00000001</v>
       </c>
       <c r="AF6" t="n">
-        <v>9000000</v>
+        <v>9000000.000000002</v>
       </c>
       <c r="AG6" t="n">
         <v>126000000.0000002</v>
       </c>
       <c r="AH6" t="n">
-        <v>84000000.00000165</v>
+        <v>84000000.00000019</v>
       </c>
       <c r="AI6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
       <c r="AJ6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
       <c r="AK6" t="n">
-        <v>168000000.0000033</v>
+        <v>168000000.0000004</v>
       </c>
       <c r="AL6" t="n">
         <v>168000000.0000004</v>
       </c>
       <c r="AM6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
       <c r="AN6" t="n">
         <v>126000000.0000002</v>
       </c>
       <c r="AO6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
       <c r="AP6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
       <c r="AQ6" t="n">
-        <v>71400000.00000142</v>
+        <v>71400000.00000013</v>
       </c>
     </row>
     <row r="7">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>467903419.2229035</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>876666666.6666666</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1356269652.351735</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1302963247.443763</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1458178421.573115</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>268333333.3333333</v>
+        <v>268333333.3333334</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>71428.57142857141</v>
       </c>
       <c r="AB9" t="n">
-        <v>357142.8571428581</v>
+        <v>357142.857142857</v>
       </c>
       <c r="AC9" t="n">
         <v>8571428.571428569</v>
@@ -1698,10 +1698,10 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="C10" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
